--- a/CodeVS/data/output/tugboat_schedule_algorithm_ODR_009.xlsx
+++ b/CodeVS/data/output/tugboat_schedule_algorithm_ODR_009.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -115,7 +115,7 @@
     <t>Travel To Carrier</t>
   </si>
   <si>
-    <t>Sea-Sea</t>
+    <t>Sea-Sea Empty Barges</t>
   </si>
   <si>
     <t>Start Order Carrier</t>
@@ -127,7 +127,7 @@
     <t>Appointment</t>
   </si>
   <si>
-    <t>Sea-River</t>
+    <t>Sea-River Load Barges</t>
   </si>
   <si>
     <t>Barge Release</t>
@@ -145,7 +145,7 @@
     <t>Customer Station</t>
   </si>
   <si>
-    <t>River-River</t>
+    <t>River-River Load Barges</t>
   </si>
   <si>
     <t>Loader-Customer</t>
@@ -181,9 +181,6 @@
     <t>ST_001 to ST_005</t>
   </si>
   <si>
-    <t>stop at ST_005</t>
-  </si>
-  <si>
     <t>ST_005 to ST_006</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
     <t>loading_point</t>
   </si>
   <si>
-    <t>water_level_point</t>
-  </si>
-  <si>
     <t>release_point</t>
   </si>
   <si>
@@ -325,7 +319,7 @@
     <t>B_089</t>
   </si>
   <si>
-    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001D4A26DA1B0&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001D4A25F9D30&gt;], 'exit_datetime': datetime.datetime(2025, 1, 30, 19, 30)}</t>
+    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001B743437AD0&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001B743743F20&gt;], 'exit_datetime': datetime.datetime(2025, 1, 30, 19, 30)}</t>
   </si>
   <si>
     <t>ST_001</t>
@@ -786,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -925,13 +919,13 @@
         <v>28</v>
       </c>
       <c r="V2" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" t="s">
         <v>133</v>
-      </c>
-      <c r="W2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -966,13 +960,13 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N3">
         <v>800</v>
@@ -993,19 +987,19 @@
         <v>45687.8125</v>
       </c>
       <c r="T3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="U3" t="s">
         <v>28</v>
       </c>
       <c r="V3" t="s">
+        <v>131</v>
+      </c>
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" t="s">
         <v>133</v>
-      </c>
-      <c r="W3" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1040,13 +1034,13 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N4">
         <v>400</v>
@@ -1067,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V4" t="s">
+        <v>131</v>
+      </c>
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" t="s">
         <v>133</v>
-      </c>
-      <c r="W4" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1111,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N5">
         <v>800</v>
@@ -1138,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V5" t="s">
+        <v>131</v>
+      </c>
+      <c r="W5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" t="s">
         <v>133</v>
-      </c>
-      <c r="W5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1182,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1209,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V6" t="s">
+        <v>131</v>
+      </c>
+      <c r="W6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" t="s">
         <v>133</v>
-      </c>
-      <c r="W6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1253,13 +1247,13 @@
         <v>10.19746835443038</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1280,16 +1274,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V7" t="s">
+        <v>131</v>
+      </c>
+      <c r="W7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" t="s">
         <v>133</v>
-      </c>
-      <c r="W7" t="s">
-        <v>26</v>
-      </c>
-      <c r="X7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1324,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>3250</v>
@@ -1351,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V8" t="s">
+        <v>131</v>
+      </c>
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" t="s">
         <v>133</v>
-      </c>
-      <c r="W8" t="s">
-        <v>26</v>
-      </c>
-      <c r="X8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1395,13 +1389,13 @@
         <v>280</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>2500</v>
@@ -1422,16 +1416,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V9" t="s">
+        <v>131</v>
+      </c>
+      <c r="W9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" t="s">
         <v>133</v>
-      </c>
-      <c r="W9" t="s">
-        <v>26</v>
-      </c>
-      <c r="X9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1466,13 +1460,13 @@
         <v>270</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>750</v>
@@ -1493,16 +1487,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V10" t="s">
+        <v>131</v>
+      </c>
+      <c r="W10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10" t="s">
         <v>133</v>
-      </c>
-      <c r="W10" t="s">
-        <v>26</v>
-      </c>
-      <c r="X10" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1537,13 +1531,13 @@
         <v>9.374683544303798</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>3250</v>
@@ -1564,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V11" t="s">
+        <v>131</v>
+      </c>
+      <c r="W11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11" t="s">
         <v>133</v>
-      </c>
-      <c r="W11" t="s">
-        <v>26</v>
-      </c>
-      <c r="X11" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1608,13 +1602,13 @@
         <v>9.374683544303798</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N12">
         <v>3250</v>
@@ -1635,16 +1629,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V12" t="s">
+        <v>131</v>
+      </c>
+      <c r="W12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12" t="s">
         <v>133</v>
-      </c>
-      <c r="W12" t="s">
-        <v>26</v>
-      </c>
-      <c r="X12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1664,28 +1658,28 @@
         <v>45688.73236768917</v>
       </c>
       <c r="F13" s="2">
-        <v>45688.73236768917</v>
+        <v>45688.78125822837</v>
       </c>
       <c r="G13">
         <v>9</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.173372940858763</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.374683544303798</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N13">
         <v>3250</v>
@@ -1706,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V13" t="s">
+        <v>131</v>
+      </c>
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" t="s">
         <v>133</v>
-      </c>
-      <c r="W13" t="s">
-        <v>26</v>
-      </c>
-      <c r="X13" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1729,34 +1723,34 @@
         <v>56</v>
       </c>
       <c r="D14" s="2">
-        <v>45688.73236768917</v>
+        <v>45688.78125822837</v>
       </c>
       <c r="E14" s="2">
-        <v>45688.73236768917</v>
+        <v>45688.78125822837</v>
       </c>
       <c r="F14" s="2">
-        <v>45688.78125822837</v>
+        <v>45688.79014741731</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1.173372940858763</v>
+        <v>0.2133405347015933</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.374683544303798</v>
       </c>
       <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
         <v>98</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>100</v>
       </c>
       <c r="N14">
         <v>3250</v>
@@ -1777,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V14" t="s">
+        <v>131</v>
+      </c>
+      <c r="W14" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14" t="s">
         <v>133</v>
-      </c>
-      <c r="W14" t="s">
-        <v>26</v>
-      </c>
-      <c r="X14" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1800,13 +1794,13 @@
         <v>57</v>
       </c>
       <c r="D15" s="2">
-        <v>45688.78125822837</v>
+        <v>45688.79014741731</v>
       </c>
       <c r="E15" s="2">
-        <v>45688.78125822837</v>
+        <v>45688.79014741731</v>
       </c>
       <c r="F15" s="2">
-        <v>45688.79014741731</v>
+        <v>45688.79903660626</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1821,13 +1815,13 @@
         <v>9.374683544303798</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N15">
         <v>3250</v>
@@ -1848,16 +1842,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V15" t="s">
+        <v>131</v>
+      </c>
+      <c r="W15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15" t="s">
         <v>133</v>
-      </c>
-      <c r="W15" t="s">
-        <v>26</v>
-      </c>
-      <c r="X15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1871,34 +1865,34 @@
         <v>58</v>
       </c>
       <c r="D16" s="2">
-        <v>45688.79014741731</v>
+        <v>45688.79903660626</v>
       </c>
       <c r="E16" s="2">
-        <v>45688.79014741731</v>
+        <v>45688.79903660626</v>
       </c>
       <c r="F16" s="2">
-        <v>45688.79903660626</v>
+        <v>45688.80348120073</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0.2133405347015933</v>
+        <v>0.1066702673507967</v>
       </c>
       <c r="J16">
         <v>9.374683544303798</v>
       </c>
       <c r="K16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N16">
         <v>3250</v>
@@ -1919,16 +1913,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V16" t="s">
+        <v>131</v>
+      </c>
+      <c r="W16" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16" t="s">
         <v>133</v>
-      </c>
-      <c r="W16" t="s">
-        <v>26</v>
-      </c>
-      <c r="X16" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1942,34 +1936,34 @@
         <v>59</v>
       </c>
       <c r="D17" s="2">
-        <v>45688.79903660626</v>
+        <v>45688.80348120073</v>
       </c>
       <c r="E17" s="2">
-        <v>45688.79903660626</v>
+        <v>45688.80348120073</v>
       </c>
       <c r="F17" s="2">
-        <v>45688.80348120073</v>
+        <v>45688.82125957862</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>0.1066702673507967</v>
+        <v>0.4266810694031866</v>
       </c>
       <c r="J17">
         <v>9.374683544303798</v>
       </c>
       <c r="K17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N17">
         <v>3250</v>
@@ -1990,16 +1984,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V17" t="s">
+        <v>131</v>
+      </c>
+      <c r="W17" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17" t="s">
         <v>133</v>
-      </c>
-      <c r="W17" t="s">
-        <v>26</v>
-      </c>
-      <c r="X17" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -2013,34 +2007,34 @@
         <v>60</v>
       </c>
       <c r="D18" s="2">
-        <v>45688.80348120073</v>
+        <v>45688.82125957862</v>
       </c>
       <c r="E18" s="2">
-        <v>45688.80348120073</v>
+        <v>45688.82125957862</v>
       </c>
       <c r="F18" s="2">
-        <v>45688.82125957862</v>
+        <v>45688.82570417309</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0.4266810694031866</v>
+        <v>0.1066702673507967</v>
       </c>
       <c r="J18">
         <v>9.374683544303798</v>
       </c>
       <c r="K18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N18">
         <v>3250</v>
@@ -2061,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V18" t="s">
+        <v>131</v>
+      </c>
+      <c r="W18" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18" t="s">
         <v>133</v>
-      </c>
-      <c r="W18" t="s">
-        <v>26</v>
-      </c>
-      <c r="X18" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -2084,13 +2078,13 @@
         <v>61</v>
       </c>
       <c r="D19" s="2">
-        <v>45688.82125957862</v>
+        <v>45688.82570417309</v>
       </c>
       <c r="E19" s="2">
-        <v>45688.82125957862</v>
+        <v>45688.82570417309</v>
       </c>
       <c r="F19" s="2">
-        <v>45688.82570417309</v>
+        <v>45688.83014876756</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2105,13 +2099,13 @@
         <v>9.374683544303798</v>
       </c>
       <c r="K19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N19">
         <v>3250</v>
@@ -2132,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V19" t="s">
+        <v>131</v>
+      </c>
+      <c r="W19" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19" t="s">
         <v>133</v>
-      </c>
-      <c r="W19" t="s">
-        <v>26</v>
-      </c>
-      <c r="X19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -2155,13 +2149,13 @@
         <v>62</v>
       </c>
       <c r="D20" s="2">
-        <v>45688.82570417309</v>
+        <v>45688.83014876756</v>
       </c>
       <c r="E20" s="2">
-        <v>45688.82570417309</v>
+        <v>45688.83014876756</v>
       </c>
       <c r="F20" s="2">
-        <v>45688.83014876756</v>
+        <v>45688.83459336202</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2176,13 +2170,13 @@
         <v>9.374683544303798</v>
       </c>
       <c r="K20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N20">
         <v>3250</v>
@@ -2203,16 +2197,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V20" t="s">
+        <v>131</v>
+      </c>
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20" t="s">
         <v>133</v>
-      </c>
-      <c r="W20" t="s">
-        <v>26</v>
-      </c>
-      <c r="X20" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -2226,13 +2220,13 @@
         <v>63</v>
       </c>
       <c r="D21" s="2">
-        <v>45688.83014876756</v>
+        <v>45688.83459336202</v>
       </c>
       <c r="E21" s="2">
-        <v>45688.83014876756</v>
+        <v>45688.83459336202</v>
       </c>
       <c r="F21" s="2">
-        <v>45688.83459336202</v>
+        <v>45688.8390379565</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2247,13 +2241,13 @@
         <v>9.374683544303798</v>
       </c>
       <c r="K21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N21">
         <v>3250</v>
@@ -2274,60 +2268,57 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V21" t="s">
+        <v>131</v>
+      </c>
+      <c r="W21" t="s">
+        <v>26</v>
+      </c>
+      <c r="X21" t="s">
         <v>133</v>
-      </c>
-      <c r="W21" t="s">
-        <v>26</v>
-      </c>
-      <c r="X21" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="2">
-        <v>45688.83459336202</v>
+        <v>45688.8390379565</v>
       </c>
       <c r="E22" s="2">
-        <v>45688.83459336202</v>
+        <v>45688.8390379565</v>
       </c>
       <c r="F22" s="2">
-        <v>45688.8390379565</v>
+        <v>45688.88070462316</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1066702673507967</v>
+        <v>60</v>
       </c>
       <c r="J22">
-        <v>9.374683544303798</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="M22" t="s">
-        <v>100</v>
-      </c>
       <c r="N22">
-        <v>3250</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2345,24 +2336,24 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="V22" t="s">
+        <v>131</v>
+      </c>
+      <c r="W22" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22" t="s">
         <v>133</v>
-      </c>
-      <c r="W22" t="s">
-        <v>26</v>
-      </c>
-      <c r="X22" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2374,7 +2365,7 @@
         <v>45688.8390379565</v>
       </c>
       <c r="F23" s="2">
-        <v>45688.88070462316</v>
+        <v>45688.85987128982</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2383,19 +2374,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>60</v>
+        <v>0.5</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
+      <c r="M23" t="s">
+        <v>100</v>
+      </c>
       <c r="N23">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -2416,13 +2410,13 @@
         <v>28</v>
       </c>
       <c r="V23" t="s">
+        <v>131</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23" t="s">
         <v>133</v>
-      </c>
-      <c r="W23" t="s">
-        <v>26</v>
-      </c>
-      <c r="X23" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2436,13 +2430,13 @@
         <v>66</v>
       </c>
       <c r="D24" s="2">
-        <v>45688.8390379565</v>
+        <v>45688.85987128982</v>
       </c>
       <c r="E24" s="2">
-        <v>45688.8390379565</v>
+        <v>45688.85987128982</v>
       </c>
       <c r="F24" s="2">
-        <v>45688.85987128982</v>
+        <v>45688.88070462316</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2457,16 +2451,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="M24" t="s">
-        <v>102</v>
-      </c>
       <c r="N24">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -2487,33 +2478,33 @@
         <v>28</v>
       </c>
       <c r="V24" t="s">
+        <v>131</v>
+      </c>
+      <c r="W24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24" t="s">
         <v>133</v>
-      </c>
-      <c r="W24" t="s">
-        <v>26</v>
-      </c>
-      <c r="X24" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="2">
-        <v>45688.85987128982</v>
+        <v>45688.82291666666</v>
       </c>
       <c r="E25" s="2">
-        <v>45688.85987128982</v>
+        <v>45688.82291666666</v>
       </c>
       <c r="F25" s="2">
-        <v>45688.88070462316</v>
+        <v>45688.82291666666</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2522,13 +2513,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2555,33 +2546,33 @@
         <v>28</v>
       </c>
       <c r="V25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W25" t="s">
         <v>26</v>
       </c>
       <c r="X25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="2">
-        <v>45688.82291666666</v>
+        <v>45688.85416666666</v>
       </c>
       <c r="E26" s="2">
-        <v>45688.82291666666</v>
+        <v>45688.85416666666</v>
       </c>
       <c r="F26" s="2">
-        <v>45688.82291666666</v>
+        <v>45688.89459351205</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2593,16 +2584,19 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
+      <c r="M26" t="s">
+        <v>98</v>
+      </c>
       <c r="N26">
-        <v>0</v>
+        <v>3250</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -2623,33 +2617,33 @@
         <v>28</v>
       </c>
       <c r="V26" t="s">
+        <v>132</v>
+      </c>
+      <c r="W26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26" t="s">
         <v>134</v>
-      </c>
-      <c r="W26" t="s">
-        <v>26</v>
-      </c>
-      <c r="X26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="2">
-        <v>45688.85416666666</v>
+        <v>45688.85987128982</v>
       </c>
       <c r="E27" s="2">
-        <v>45688.85416666666</v>
+        <v>45688.85987128982</v>
       </c>
       <c r="F27" s="2">
-        <v>45688.89459351205</v>
+        <v>45688.87376017871</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2661,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K27" t="s">
         <v>95</v>
@@ -2670,10 +2664,10 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N27">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2694,13 +2688,13 @@
         <v>28</v>
       </c>
       <c r="V27" t="s">
+        <v>132</v>
+      </c>
+      <c r="W27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27" t="s">
         <v>134</v>
-      </c>
-      <c r="W27" t="s">
-        <v>26</v>
-      </c>
-      <c r="X27" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2714,13 +2708,13 @@
         <v>70</v>
       </c>
       <c r="D28" s="2">
-        <v>45688.85987128982</v>
+        <v>45688.88070462316</v>
       </c>
       <c r="E28" s="2">
-        <v>45688.85987128982</v>
+        <v>45688.88070462316</v>
       </c>
       <c r="F28" s="2">
-        <v>45688.87376017871</v>
+        <v>45688.89459351205</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2735,16 +2729,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N28">
-        <v>2500</v>
+        <v>3250</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2765,54 +2759,54 @@
         <v>28</v>
       </c>
       <c r="V28" t="s">
+        <v>132</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28" t="s">
         <v>134</v>
-      </c>
-      <c r="W28" t="s">
-        <v>26</v>
-      </c>
-      <c r="X28" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
       </c>
       <c r="D29" s="2">
-        <v>45688.88070462316</v>
+        <v>45688.89459351205</v>
       </c>
       <c r="E29" s="2">
-        <v>45688.88070462316</v>
+        <v>45688.89459351205</v>
       </c>
       <c r="F29" s="2">
-        <v>45688.89459351205</v>
+        <v>45689.57253405968</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>10.85390647690967</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>9.305405405405406</v>
       </c>
       <c r="K29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N29">
         <v>3250</v>
@@ -2836,21 +2830,21 @@
         <v>28</v>
       </c>
       <c r="V29" t="s">
+        <v>132</v>
+      </c>
+      <c r="W29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29" t="s">
         <v>134</v>
-      </c>
-      <c r="W29" t="s">
-        <v>26</v>
-      </c>
-      <c r="X29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
@@ -2862,16 +2856,16 @@
         <v>45688.89459351205</v>
       </c>
       <c r="F30" s="2">
-        <v>45689.57253405968</v>
+        <v>45688.916981933</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>10.85390647690967</v>
+        <v>0.5373221028173105</v>
       </c>
       <c r="J30">
         <v>9.305405405405406</v>
@@ -2883,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N30">
         <v>3250</v>
@@ -2907,13 +2901,13 @@
         <v>28</v>
       </c>
       <c r="V30" t="s">
+        <v>132</v>
+      </c>
+      <c r="W30" t="s">
+        <v>26</v>
+      </c>
+      <c r="X30" t="s">
         <v>134</v>
-      </c>
-      <c r="W30" t="s">
-        <v>26</v>
-      </c>
-      <c r="X30" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -2927,34 +2921,34 @@
         <v>73</v>
       </c>
       <c r="D31" s="2">
-        <v>45688.89459351205</v>
+        <v>45688.916981933</v>
       </c>
       <c r="E31" s="2">
-        <v>45688.89459351205</v>
+        <v>45688.916981933</v>
       </c>
       <c r="F31" s="2">
-        <v>45688.916981933</v>
+        <v>45688.92593730138</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0.5373221028173105</v>
+        <v>0.2149288411269242</v>
       </c>
       <c r="J31">
         <v>9.305405405405406</v>
       </c>
       <c r="K31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N31">
         <v>3250</v>
@@ -2975,16 +2969,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="V31" t="s">
+        <v>132</v>
+      </c>
+      <c r="W31" t="s">
+        <v>26</v>
+      </c>
+      <c r="X31" t="s">
         <v>134</v>
-      </c>
-      <c r="W31" t="s">
-        <v>26</v>
-      </c>
-      <c r="X31" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2998,13 +2992,13 @@
         <v>74</v>
       </c>
       <c r="D32" s="2">
-        <v>45688.916981933</v>
+        <v>45688.92593730138</v>
       </c>
       <c r="E32" s="2">
-        <v>45688.916981933</v>
+        <v>45688.92593730138</v>
       </c>
       <c r="F32" s="2">
-        <v>45688.92593730138</v>
+        <v>45688.93489266976</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3019,13 +3013,13 @@
         <v>9.305405405405406</v>
       </c>
       <c r="K32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N32">
         <v>3250</v>
@@ -3046,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V32" t="s">
+        <v>132</v>
+      </c>
+      <c r="W32" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32" t="s">
         <v>134</v>
-      </c>
-      <c r="W32" t="s">
-        <v>26</v>
-      </c>
-      <c r="X32" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3069,34 +3063,34 @@
         <v>75</v>
       </c>
       <c r="D33" s="2">
-        <v>45688.92593730138</v>
+        <v>45688.93489266976</v>
       </c>
       <c r="E33" s="2">
-        <v>45688.92593730138</v>
+        <v>45688.93489266976</v>
       </c>
       <c r="F33" s="2">
-        <v>45688.93489266976</v>
+        <v>45688.93937035395</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0.2149288411269242</v>
+        <v>0.1074644205634621</v>
       </c>
       <c r="J33">
         <v>9.305405405405406</v>
       </c>
       <c r="K33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N33">
         <v>3250</v>
@@ -3117,16 +3111,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V33" t="s">
+        <v>132</v>
+      </c>
+      <c r="W33" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33" t="s">
         <v>134</v>
-      </c>
-      <c r="W33" t="s">
-        <v>26</v>
-      </c>
-      <c r="X33" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3140,34 +3134,34 @@
         <v>76</v>
       </c>
       <c r="D34" s="2">
-        <v>45688.93489266976</v>
+        <v>45688.93937035395</v>
       </c>
       <c r="E34" s="2">
-        <v>45688.93489266976</v>
+        <v>45688.93937035395</v>
       </c>
       <c r="F34" s="2">
-        <v>45688.93937035395</v>
+        <v>45688.9572810907</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>0.1074644205634621</v>
+        <v>0.4298576822538484</v>
       </c>
       <c r="J34">
         <v>9.305405405405406</v>
       </c>
       <c r="K34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N34">
         <v>3250</v>
@@ -3188,16 +3182,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V34" t="s">
+        <v>132</v>
+      </c>
+      <c r="W34" t="s">
+        <v>26</v>
+      </c>
+      <c r="X34" t="s">
         <v>134</v>
-      </c>
-      <c r="W34" t="s">
-        <v>26</v>
-      </c>
-      <c r="X34" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3211,34 +3205,34 @@
         <v>77</v>
       </c>
       <c r="D35" s="2">
-        <v>45688.93937035395</v>
+        <v>45688.9572810907</v>
       </c>
       <c r="E35" s="2">
-        <v>45688.93937035395</v>
+        <v>45688.9572810907</v>
       </c>
       <c r="F35" s="2">
-        <v>45688.9572810907</v>
+        <v>45688.96623645908</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0.4298576822538484</v>
+        <v>0.2149288411269242</v>
       </c>
       <c r="J35">
         <v>9.305405405405406</v>
       </c>
       <c r="K35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N35">
         <v>3250</v>
@@ -3259,16 +3253,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V35" t="s">
+        <v>132</v>
+      </c>
+      <c r="W35" t="s">
+        <v>26</v>
+      </c>
+      <c r="X35" t="s">
         <v>134</v>
-      </c>
-      <c r="W35" t="s">
-        <v>26</v>
-      </c>
-      <c r="X35" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3282,34 +3276,34 @@
         <v>78</v>
       </c>
       <c r="D36" s="2">
-        <v>45688.9572810907</v>
+        <v>45688.96623645908</v>
       </c>
       <c r="E36" s="2">
-        <v>45688.9572810907</v>
+        <v>45688.96623645908</v>
       </c>
       <c r="F36" s="2">
-        <v>45688.96623645908</v>
+        <v>45688.97966951165</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0.2149288411269242</v>
+        <v>0.3223932616903863</v>
       </c>
       <c r="J36">
         <v>9.305405405405406</v>
       </c>
       <c r="K36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N36">
         <v>3250</v>
@@ -3330,16 +3324,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V36" t="s">
+        <v>132</v>
+      </c>
+      <c r="W36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X36" t="s">
         <v>134</v>
-      </c>
-      <c r="W36" t="s">
-        <v>26</v>
-      </c>
-      <c r="X36" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3353,34 +3347,34 @@
         <v>79</v>
       </c>
       <c r="D37" s="2">
-        <v>45688.96623645908</v>
+        <v>45688.97966951165</v>
       </c>
       <c r="E37" s="2">
-        <v>45688.96623645908</v>
+        <v>45688.97966951165</v>
       </c>
       <c r="F37" s="2">
-        <v>45688.97966951165</v>
+        <v>45688.99758024841</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>0.3223932616903863</v>
+        <v>0.4298576822538484</v>
       </c>
       <c r="J37">
         <v>9.305405405405406</v>
       </c>
       <c r="K37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N37">
         <v>3250</v>
@@ -3401,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V37" t="s">
+        <v>132</v>
+      </c>
+      <c r="W37" t="s">
+        <v>26</v>
+      </c>
+      <c r="X37" t="s">
         <v>134</v>
-      </c>
-      <c r="W37" t="s">
-        <v>26</v>
-      </c>
-      <c r="X37" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3424,34 +3418,34 @@
         <v>80</v>
       </c>
       <c r="D38" s="2">
-        <v>45688.97966951165</v>
+        <v>45688.99758024841</v>
       </c>
       <c r="E38" s="2">
-        <v>45688.97966951165</v>
+        <v>45688.99758024841</v>
       </c>
       <c r="F38" s="2">
-        <v>45688.99758024841</v>
+        <v>45689.0468347745</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I38">
-        <v>0.4298576822538484</v>
+        <v>1.182108626198083</v>
       </c>
       <c r="J38">
         <v>9.305405405405406</v>
       </c>
       <c r="K38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N38">
         <v>3250</v>
@@ -3472,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V38" t="s">
+        <v>132</v>
+      </c>
+      <c r="W38" t="s">
+        <v>26</v>
+      </c>
+      <c r="X38" t="s">
         <v>134</v>
-      </c>
-      <c r="W38" t="s">
-        <v>26</v>
-      </c>
-      <c r="X38" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3495,34 +3489,34 @@
         <v>81</v>
       </c>
       <c r="D39" s="2">
-        <v>45688.99758024841</v>
+        <v>45689.0468347745</v>
       </c>
       <c r="E39" s="2">
-        <v>45688.99758024841</v>
+        <v>45689.0468347745</v>
       </c>
       <c r="F39" s="2">
-        <v>45689.0468347745</v>
+        <v>45689.05131245869</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1.182108626198083</v>
+        <v>0.1074644205634621</v>
       </c>
       <c r="J39">
         <v>9.305405405405406</v>
       </c>
       <c r="K39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N39">
         <v>3250</v>
@@ -3543,16 +3537,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V39" t="s">
+        <v>132</v>
+      </c>
+      <c r="W39" t="s">
+        <v>26</v>
+      </c>
+      <c r="X39" t="s">
         <v>134</v>
-      </c>
-      <c r="W39" t="s">
-        <v>26</v>
-      </c>
-      <c r="X39" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3566,34 +3560,34 @@
         <v>82</v>
       </c>
       <c r="D40" s="2">
-        <v>45689.0468347745</v>
+        <v>45689.05131245869</v>
       </c>
       <c r="E40" s="2">
-        <v>45689.0468347745</v>
+        <v>45689.05131245869</v>
       </c>
       <c r="F40" s="2">
-        <v>45689.05131245869</v>
+        <v>45689.14534382669</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I40">
-        <v>0.1074644205634621</v>
+        <v>2.256752831832704</v>
       </c>
       <c r="J40">
         <v>9.305405405405406</v>
       </c>
       <c r="K40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N40">
         <v>3250</v>
@@ -3614,16 +3608,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V40" t="s">
+        <v>132</v>
+      </c>
+      <c r="W40" t="s">
+        <v>26</v>
+      </c>
+      <c r="X40" t="s">
         <v>134</v>
-      </c>
-      <c r="W40" t="s">
-        <v>26</v>
-      </c>
-      <c r="X40" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3637,34 +3631,34 @@
         <v>83</v>
       </c>
       <c r="D41" s="2">
-        <v>45689.05131245869</v>
+        <v>45689.14534382669</v>
       </c>
       <c r="E41" s="2">
-        <v>45689.05131245869</v>
+        <v>45689.14534382669</v>
       </c>
       <c r="F41" s="2">
-        <v>45689.14534382669</v>
+        <v>45689.15429919507</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>2.256752831832704</v>
+        <v>0.2149288411269242</v>
       </c>
       <c r="J41">
         <v>9.305405405405406</v>
       </c>
       <c r="K41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N41">
         <v>3250</v>
@@ -3685,16 +3679,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V41" t="s">
+        <v>132</v>
+      </c>
+      <c r="W41" t="s">
+        <v>26</v>
+      </c>
+      <c r="X41" t="s">
         <v>134</v>
-      </c>
-      <c r="W41" t="s">
-        <v>26</v>
-      </c>
-      <c r="X41" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3708,34 +3702,34 @@
         <v>84</v>
       </c>
       <c r="D42" s="2">
-        <v>45689.14534382669</v>
+        <v>45689.15429919507</v>
       </c>
       <c r="E42" s="2">
-        <v>45689.14534382669</v>
+        <v>45689.15429919507</v>
       </c>
       <c r="F42" s="2">
-        <v>45689.15429919507</v>
+        <v>45689.18116530021</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I42">
-        <v>0.2149288411269242</v>
+        <v>0.6447865233807726</v>
       </c>
       <c r="J42">
         <v>9.305405405405406</v>
       </c>
       <c r="K42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N42">
         <v>3250</v>
@@ -3756,16 +3750,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V42" t="s">
+        <v>132</v>
+      </c>
+      <c r="W42" t="s">
+        <v>26</v>
+      </c>
+      <c r="X42" t="s">
         <v>134</v>
-      </c>
-      <c r="W42" t="s">
-        <v>26</v>
-      </c>
-      <c r="X42" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3779,34 +3773,34 @@
         <v>85</v>
       </c>
       <c r="D43" s="2">
-        <v>45689.15429919507</v>
+        <v>45689.18116530021</v>
       </c>
       <c r="E43" s="2">
-        <v>45689.15429919507</v>
+        <v>45689.18116530021</v>
       </c>
       <c r="F43" s="2">
-        <v>45689.18116530021</v>
+        <v>45689.23041982629</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I43">
-        <v>0.6447865233807726</v>
+        <v>1.182108626198083</v>
       </c>
       <c r="J43">
         <v>9.305405405405406</v>
       </c>
       <c r="K43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N43">
         <v>3250</v>
@@ -3827,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V43" t="s">
+        <v>132</v>
+      </c>
+      <c r="W43" t="s">
+        <v>26</v>
+      </c>
+      <c r="X43" t="s">
         <v>134</v>
-      </c>
-      <c r="W43" t="s">
-        <v>26</v>
-      </c>
-      <c r="X43" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3850,34 +3844,34 @@
         <v>86</v>
       </c>
       <c r="D44" s="2">
-        <v>45689.18116530021</v>
+        <v>45689.23041982629</v>
       </c>
       <c r="E44" s="2">
-        <v>45689.18116530021</v>
+        <v>45689.23041982629</v>
       </c>
       <c r="F44" s="2">
-        <v>45689.23041982629</v>
+        <v>45689.24385287886</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>1.182108626198083</v>
+        <v>0.3223932616903863</v>
       </c>
       <c r="J44">
         <v>9.305405405405406</v>
       </c>
       <c r="K44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N44">
         <v>3250</v>
@@ -3898,16 +3892,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V44" t="s">
+        <v>132</v>
+      </c>
+      <c r="W44" t="s">
+        <v>26</v>
+      </c>
+      <c r="X44" t="s">
         <v>134</v>
-      </c>
-      <c r="W44" t="s">
-        <v>26</v>
-      </c>
-      <c r="X44" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -3921,13 +3915,13 @@
         <v>87</v>
       </c>
       <c r="D45" s="2">
-        <v>45689.23041982629</v>
+        <v>45689.24385287886</v>
       </c>
       <c r="E45" s="2">
-        <v>45689.23041982629</v>
+        <v>45689.24385287886</v>
       </c>
       <c r="F45" s="2">
-        <v>45689.24385287886</v>
+        <v>45689.25728593144</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3942,13 +3936,13 @@
         <v>9.305405405405406</v>
       </c>
       <c r="K45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N45">
         <v>3250</v>
@@ -3969,16 +3963,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V45" t="s">
+        <v>132</v>
+      </c>
+      <c r="W45" t="s">
+        <v>26</v>
+      </c>
+      <c r="X45" t="s">
         <v>134</v>
-      </c>
-      <c r="W45" t="s">
-        <v>26</v>
-      </c>
-      <c r="X45" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -3992,34 +3986,34 @@
         <v>88</v>
       </c>
       <c r="D46" s="2">
-        <v>45689.24385287886</v>
+        <v>45689.25728593144</v>
       </c>
       <c r="E46" s="2">
-        <v>45689.24385287886</v>
+        <v>45689.25728593144</v>
       </c>
       <c r="F46" s="2">
-        <v>45689.25728593144</v>
+        <v>45689.31997351009</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I46">
-        <v>0.3223932616903863</v>
+        <v>1.504501887888469</v>
       </c>
       <c r="J46">
         <v>9.305405405405406</v>
       </c>
       <c r="K46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N46">
         <v>3250</v>
@@ -4040,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V46" t="s">
+        <v>132</v>
+      </c>
+      <c r="W46" t="s">
+        <v>26</v>
+      </c>
+      <c r="X46" t="s">
         <v>134</v>
-      </c>
-      <c r="W46" t="s">
-        <v>26</v>
-      </c>
-      <c r="X46" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4063,34 +4057,34 @@
         <v>89</v>
       </c>
       <c r="D47" s="2">
-        <v>45689.25728593144</v>
+        <v>45689.31997351009</v>
       </c>
       <c r="E47" s="2">
-        <v>45689.25728593144</v>
+        <v>45689.31997351009</v>
       </c>
       <c r="F47" s="2">
-        <v>45689.31997351009</v>
+        <v>45689.32892887847</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>1.504501887888469</v>
+        <v>0.2149288411269242</v>
       </c>
       <c r="J47">
         <v>9.305405405405406</v>
       </c>
       <c r="K47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N47">
         <v>3250</v>
@@ -4111,16 +4105,16 @@
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V47" t="s">
+        <v>132</v>
+      </c>
+      <c r="W47" t="s">
+        <v>26</v>
+      </c>
+      <c r="X47" t="s">
         <v>134</v>
-      </c>
-      <c r="W47" t="s">
-        <v>26</v>
-      </c>
-      <c r="X47" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -4134,13 +4128,13 @@
         <v>90</v>
       </c>
       <c r="D48" s="2">
-        <v>45689.31997351009</v>
+        <v>45689.32892887847</v>
       </c>
       <c r="E48" s="2">
-        <v>45689.31997351009</v>
+        <v>45689.32892887847</v>
       </c>
       <c r="F48" s="2">
-        <v>45689.32892887847</v>
+        <v>45689.33788424685</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4155,13 +4149,13 @@
         <v>9.305405405405406</v>
       </c>
       <c r="K48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N48">
         <v>3250</v>
@@ -4182,16 +4176,16 @@
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V48" t="s">
+        <v>132</v>
+      </c>
+      <c r="W48" t="s">
+        <v>26</v>
+      </c>
+      <c r="X48" t="s">
         <v>134</v>
-      </c>
-      <c r="W48" t="s">
-        <v>26</v>
-      </c>
-      <c r="X48" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4205,13 +4199,13 @@
         <v>91</v>
       </c>
       <c r="D49" s="2">
-        <v>45689.32892887847</v>
+        <v>45689.33788424685</v>
       </c>
       <c r="E49" s="2">
-        <v>45689.32892887847</v>
+        <v>45689.33788424685</v>
       </c>
       <c r="F49" s="2">
-        <v>45689.33788424685</v>
+        <v>45689.34683961523</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4226,13 +4220,13 @@
         <v>9.305405405405406</v>
       </c>
       <c r="K49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N49">
         <v>3250</v>
@@ -4253,48 +4247,48 @@
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V49" t="s">
+        <v>132</v>
+      </c>
+      <c r="W49" t="s">
+        <v>26</v>
+      </c>
+      <c r="X49" t="s">
         <v>134</v>
-      </c>
-      <c r="W49" t="s">
-        <v>26</v>
-      </c>
-      <c r="X49" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
         <v>92</v>
       </c>
       <c r="D50" s="2">
-        <v>45689.33788424685</v>
+        <v>45689.34683961523</v>
       </c>
       <c r="E50" s="2">
-        <v>45689.33788424685</v>
+        <v>45689.34683961523</v>
       </c>
       <c r="F50" s="2">
-        <v>45689.34683961523</v>
+        <v>45689.52045072634</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0.2149288411269242</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="J50">
-        <v>9.305405405405406</v>
+        <v>600</v>
       </c>
       <c r="K50" t="s">
         <v>96</v>
@@ -4303,10 +4297,10 @@
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N50">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -4324,16 +4318,16 @@
         <v>0</v>
       </c>
       <c r="U50" t="s">
+        <v>29</v>
+      </c>
+      <c r="V50" t="s">
         <v>132</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
+        <v>26</v>
+      </c>
+      <c r="X50" t="s">
         <v>134</v>
-      </c>
-      <c r="W50" t="s">
-        <v>26</v>
-      </c>
-      <c r="X50" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4347,13 +4341,13 @@
         <v>93</v>
       </c>
       <c r="D51" s="2">
-        <v>45689.34683961523</v>
+        <v>45689.52045072634</v>
       </c>
       <c r="E51" s="2">
-        <v>45689.34683961523</v>
+        <v>45689.52045072634</v>
       </c>
       <c r="F51" s="2">
-        <v>45689.52045072634</v>
+        <v>45689.57253405968</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4362,22 +4356,22 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>4.166666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="J51">
         <v>600</v>
       </c>
       <c r="K51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N51">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -4398,84 +4392,13 @@
         <v>29</v>
       </c>
       <c r="V51" t="s">
+        <v>132</v>
+      </c>
+      <c r="W51" t="s">
+        <v>26</v>
+      </c>
+      <c r="X51" t="s">
         <v>134</v>
-      </c>
-      <c r="W51" t="s">
-        <v>26</v>
-      </c>
-      <c r="X51" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
-      <c r="A52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="2">
-        <v>45689.52045072634</v>
-      </c>
-      <c r="E52" s="2">
-        <v>45689.52045072634</v>
-      </c>
-      <c r="F52" s="2">
-        <v>45689.57253405968</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>1.25</v>
-      </c>
-      <c r="J52">
-        <v>600</v>
-      </c>
-      <c r="K52" t="s">
-        <v>97</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52" t="s">
-        <v>102</v>
-      </c>
-      <c r="N52">
-        <v>750</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="U52" t="s">
-        <v>29</v>
-      </c>
-      <c r="V52" t="s">
-        <v>134</v>
-      </c>
-      <c r="W52" t="s">
-        <v>26</v>
-      </c>
-      <c r="X52" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
